--- a/HR_Data/microalgae_Exp_2.xlsx
+++ b/HR_Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\HR_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A67C5E-4D88-482E-9FEC-09C0BEC11809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3197F0BE-847F-47D9-AA8E-DC5E6A3EF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,463 +150,6 @@
         <row r="1">
           <cell r="A1" t="str">
             <v>Day</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Media</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Variety</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>pH_change</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D2">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D3">
-            <v>1.3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D4">
-            <v>1.4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D5">
-            <v>23131</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D6">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D7">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D8">
-            <v>1.7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>BBM</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D9">
-            <v>1.6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D10">
-            <v>12321</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D11">
-            <v>21231</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D12">
-            <v>864</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D13">
-            <v>15321</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D14">
-            <v>2848</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D15">
-            <v>574</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D16">
-            <v>184</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>BG11</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D17">
-            <v>518</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D18">
-            <v>245</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D19">
-            <v>1.3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D20">
-            <v>1.4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D21">
-            <v>1.6</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D22">
-            <v>1.3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D23">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D24">
-            <v>1.6</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>MBM</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D25">
-            <v>1.8</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D26">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D27">
-            <v>1.4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D28">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>BTN-R08</v>
-          </cell>
-          <cell r="D29">
-            <v>1.3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Day7</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D30">
-            <v>1.1000000000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Day14</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D31">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Day21</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D32">
-            <v>1.4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Day28</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>MBG11</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>BTN-R10</v>
-          </cell>
-          <cell r="D33">
-            <v>1.7</v>
           </cell>
         </row>
       </sheetData>
@@ -902,35 +445,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str" cm="1">
-        <f t="array" ref="A1:A33">[1]Exp_2_mean!$A$1:$A$33</f>
+        <f t="array" ref="A1:K33">_xlfn.ANCHORARRAY([1]Exp_2_mean!A1)</f>
         <v>Day</v>
       </c>
-      <c r="B1" s="1" t="str" cm="1">
-        <f t="array" ref="B1:B33">[1]Exp_2_mean!$B$1:$B$33</f>
+      <c r="B1" s="1" t="str">
         <v>Media</v>
       </c>
-      <c r="C1" s="1" t="str" cm="1">
-        <f t="array" ref="C1:D33">[1]Exp_2_mean!$C$1:$D$33</f>
+      <c r="C1" s="1" t="str">
         <v>Variety</v>
       </c>
       <c r="D1" s="1" t="str">
         <v>pH_change</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="str">
+        <v>Electrical Conductvity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Total Dissolved susbtances</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Temperature</v>
+      </c>
+      <c r="H1" t="str">
+        <v>OD</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Biomass Production</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Productivity</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Doubling_time</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <v>Day7</v>
       </c>
@@ -940,11 +510,32 @@
       <c r="C2" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>Day14</v>
       </c>
@@ -954,11 +545,32 @@
       <c r="C3" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>Day21</v>
       </c>
@@ -968,11 +580,32 @@
       <c r="C4" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>Day28</v>
       </c>
@@ -982,11 +615,32 @@
       <c r="C5" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D5">
-        <v>23131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <v>Day7</v>
       </c>
@@ -996,11 +650,32 @@
       <c r="C6" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <v>Day14</v>
       </c>
@@ -1010,11 +685,32 @@
       <c r="C7" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <v>Day21</v>
       </c>
@@ -1024,11 +720,32 @@
       <c r="C8" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D8">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <v>Day28</v>
       </c>
@@ -1038,11 +755,32 @@
       <c r="C9" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D9">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <v>Day7</v>
       </c>
@@ -1052,11 +790,32 @@
       <c r="C10" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D10">
-        <v>12321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <v>Day14</v>
       </c>
@@ -1066,11 +825,32 @@
       <c r="C11" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D11">
-        <v>21231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <v>Day21</v>
       </c>
@@ -1080,11 +860,32 @@
       <c r="C12" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D12">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <v>Day28</v>
       </c>
@@ -1094,11 +895,32 @@
       <c r="C13" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D13">
-        <v>15321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <v>Day7</v>
       </c>
@@ -1108,11 +930,32 @@
       <c r="C14" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D14">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <v>Day14</v>
       </c>
@@ -1122,11 +965,32 @@
       <c r="C15" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D15">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <v>Day21</v>
       </c>
@@ -1136,11 +1000,32 @@
       <c r="C16" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D16">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <v>Day28</v>
       </c>
@@ -1150,123 +1035,312 @@
       <c r="C17" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D17">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <v>Day7</v>
       </c>
       <c r="B18" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C18" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D18">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <v>Day14</v>
       </c>
       <c r="B19" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C19" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D19">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <v>Day21</v>
       </c>
       <c r="B20" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C20" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D20">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <v>Day28</v>
       </c>
       <c r="B21" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C21" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D21">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <v>Day7</v>
       </c>
       <c r="B22" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C22" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D22">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <v>Day14</v>
       </c>
       <c r="B23" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C23" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <v>Day21</v>
       </c>
       <c r="B24" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C24" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D24">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <v>Day28</v>
       </c>
       <c r="B25" t="str">
-        <v>MBM</v>
+        <v>MBBM</v>
       </c>
       <c r="C25" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D25">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <v>Day7</v>
       </c>
@@ -1276,11 +1350,32 @@
       <c r="C26" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D26">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <v>Day14</v>
       </c>
@@ -1290,11 +1385,32 @@
       <c r="C27" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D27">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <v>Day21</v>
       </c>
@@ -1304,11 +1420,32 @@
       <c r="C28" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D28">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <v>Day28</v>
       </c>
@@ -1318,11 +1455,32 @@
       <c r="C29" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D29">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <v>Day7</v>
       </c>
@@ -1332,11 +1490,32 @@
       <c r="C30" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D30">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <v>Day14</v>
       </c>
@@ -1346,11 +1525,32 @@
       <c r="C31" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D31">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <v>Day21</v>
       </c>
@@ -1360,11 +1560,32 @@
       <c r="C32" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D32">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <v>Day28</v>
       </c>
@@ -1374,8 +1595,29 @@
       <c r="C33" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D33">
-        <v>1.7</v>
+      <c r="D33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
